--- a/statistics/HistoricalDistanceData/historical_distance/Q60519471-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519471-en.xlsx
@@ -34,27 +34,27 @@
     <t>Wyoming Voter Surveys: How Different Groups Voted</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Wyoming Democratic Caucus moves to only mail-in voting</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
     <t>Wyoming: Election Tools, Deadlines, Dates, Rules, and Links</t>
   </si>
   <si>
-    <t>Wyoming Democratic Caucus moves to only mail-in voting</t>
-  </si>
-  <si>
     <t>Voting &amp; Elections Toolkits</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
@@ -79,25 +79,25 @@
     <t>https://www.nytimes.com/interactive/2020/11/03/us/elections/ap-polls-wyoming.html</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.wyomingnews.com/news/local_news/wyoming-democratic-caucus-moves-to-only-mail-in-voting/article_335d176b-f3d2-5ffd-9b38-7d50940cb523.html</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
     <t>https://www.vote.org/state/wyoming/</t>
   </si>
   <si>
-    <t>https://www.wyomingnews.com/news/local_news/wyoming-democratic-caucus-moves-to-only-mail-in-voting/article_335d176b-f3d2-5ffd-9b38-7d50940cb523.html</t>
-  </si>
-  <si>
     <t>https://godort.libguides.com/votingtoolkit/texas</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
   </si>
   <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
